--- a/meals.xlsx
+++ b/meals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="meals" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
   <si>
     <t>MealID</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>Romano cheese</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>falafel mix</t>
   </si>
 </sst>
 </file>
@@ -834,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,10 +852,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -888,8 +897,11 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -908,8 +920,11 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -928,8 +943,11 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -948,8 +966,11 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -968,8 +989,11 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -988,8 +1012,11 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1008,8 +1035,11 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1028,8 +1058,11 @@
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1048,8 +1081,11 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1088,8 +1127,11 @@
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1108,8 +1150,11 @@
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1128,8 +1173,11 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1148,8 +1196,11 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1168,8 +1219,11 @@
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1188,8 +1242,11 @@
       <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1208,8 +1265,11 @@
       <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1228,8 +1288,11 @@
       <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1248,8 +1311,11 @@
       <c r="F20" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1268,8 +1334,11 @@
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1288,8 +1357,11 @@
       <c r="F22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1308,8 +1380,11 @@
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1328,8 +1403,11 @@
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1346,8 +1424,11 @@
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1366,8 +1447,11 @@
       <c r="F26" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1386,8 +1470,11 @@
       <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1406,8 +1493,11 @@
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1426,8 +1516,11 @@
       <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1442,10 +1535,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1464,8 +1560,11 @@
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1484,8 +1583,11 @@
       <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1504,8 +1606,11 @@
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1524,8 +1629,11 @@
       <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1544,8 +1652,11 @@
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1564,6 +1675,17 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,73 +1728,95 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -1687,52 +1831,52 @@
         <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>108</v>
@@ -1742,91 +1886,91 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>108</v>
@@ -1836,30 +1980,32 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1872,761 +2018,779 @@
         <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
       <c r="D54" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="2">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>14</v>
@@ -2636,320 +2800,322 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D80" s="2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="2">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="2">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
@@ -2960,180 +3126,164 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
+        <v>31</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95" s="2">
-        <v>2</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3</v>
+      </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D98" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D99" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="2">
-        <v>2</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3142,10 +3292,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3154,10 +3304,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3166,116 +3316,94 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="2">
-        <v>2</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" s="2">
-        <v>3</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -3284,10 +3412,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3296,10 +3424,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3308,53 +3436,51 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D117" t="s">
-        <v>93</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" t="s">
-        <v>94</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119" t="s">
-        <v>95</v>
-      </c>
-      <c r="D119" t="s">
-        <v>96</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meals.xlsx
+++ b/meals.xlsx
@@ -10,12 +10,52 @@
     <sheet name="meals" sheetId="1" r:id="rId1"/>
     <sheet name="ingredients" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ingredients!$A$1:$D$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">meals!$A$1:$G$36</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3: love it!
+2: good
+1: meh</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="178">
   <si>
     <t>MealID</t>
   </si>
@@ -77,9 +117,6 @@
     <t>Spaghetti carbonera</t>
   </si>
   <si>
-    <t>noodles</t>
-  </si>
-  <si>
     <t>peas</t>
   </si>
   <si>
@@ -221,9 +258,6 @@
     <t>Jacket potatoes</t>
   </si>
   <si>
-    <t>Pizza</t>
-  </si>
-  <si>
     <t>Tofu stir-fry</t>
   </si>
   <si>
@@ -480,13 +514,88 @@
   </si>
   <si>
     <t>falafel mix</t>
+  </si>
+  <si>
+    <t>Coconut beef madras</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>400 grams</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>stir-fry vegetables</t>
+  </si>
+  <si>
+    <t>baking potatoes</t>
+  </si>
+  <si>
+    <t>1 tin</t>
+  </si>
+  <si>
+    <t>baked beans</t>
+  </si>
+  <si>
+    <t>2 tins</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>MealGroup</t>
+  </si>
+  <si>
+    <t>MidEast</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Cajun</t>
+  </si>
+  <si>
+    <t>Mexican</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>rice and beans</t>
+  </si>
+  <si>
+    <t>Chili con carne</t>
+  </si>
+  <si>
+    <t>Veggie chili</t>
+  </si>
+  <si>
+    <t>SpagBol</t>
+  </si>
+  <si>
+    <t>Pasta (tortellini)</t>
+  </si>
+  <si>
+    <t>rice/pasta</t>
+  </si>
+  <si>
+    <t>Salmon &amp; potatoes</t>
+  </si>
+  <si>
+    <t>tacos</t>
+  </si>
+  <si>
+    <t>Tacos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +615,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -839,11 +961,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,9 +975,10 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,10 +998,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -886,10 +1012,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -900,8 +1026,11 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -909,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -923,13 +1052,16 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -947,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -955,7 +1087,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -969,8 +1101,11 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -978,13 +1113,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -992,22 +1127,25 @@
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -1015,22 +1153,25 @@
       <c r="G7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1038,22 +1179,25 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -1062,21 +1206,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -1085,21 +1229,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -1107,22 +1251,25 @@
       <c r="G11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
@@ -1130,22 +1277,25 @@
       <c r="G12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1153,22 +1303,25 @@
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
@@ -1176,16 +1329,19 @@
       <c r="G14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>17</v>
@@ -1199,13 +1355,16 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1217,21 +1376,21 @@
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -1240,142 +1399,154 @@
         <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -1383,22 +1554,25 @@
       <c r="G23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
@@ -1406,16 +1580,19 @@
       <c r="G24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>14</v>
@@ -1427,45 +1604,51 @@
       <c r="G25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>8</v>
@@ -1473,19 +1656,22 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>18</v>
@@ -1497,21 +1683,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>8</v>
@@ -1519,19 +1705,22 @@
       <c r="G29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1541,44 +1730,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>12</v>
@@ -1586,13 +1778,16 @@
       <c r="G32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -1601,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
@@ -1610,21 +1805,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>12</v>
@@ -1632,73 +1827,199 @@
       <c r="G34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1731,13 +2052,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1747,13 +2068,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1763,13 +2084,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1779,13 +2100,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1795,11 +2116,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1809,13 +2130,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1825,13 +2146,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1841,13 +2162,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1857,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1873,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1889,11 +2210,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1903,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1919,13 +2240,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1935,13 +2256,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1951,13 +2272,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1967,13 +2288,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1983,13 +2304,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1999,13 +2320,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2015,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2031,13 +2352,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2047,13 +2368,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2063,13 +2384,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2079,11 +2400,11 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2093,13 +2414,13 @@
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2109,11 +2430,11 @@
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2123,11 +2444,11 @@
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2137,13 +2458,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2153,11 +2474,11 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2167,11 +2488,11 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2181,13 +2502,13 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2197,13 +2518,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2213,13 +2534,13 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
         <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2229,7 +2550,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -2243,11 +2564,11 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2257,13 +2578,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2273,13 +2594,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2289,13 +2610,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2305,13 +2626,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2321,13 +2642,13 @@
         <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2337,13 +2658,13 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2353,13 +2674,13 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2369,13 +2690,13 @@
         <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2385,13 +2706,13 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2401,11 +2722,11 @@
         <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2415,13 +2736,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2431,13 +2752,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2447,13 +2768,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2463,13 +2784,13 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2479,13 +2800,13 @@
         <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2495,13 +2816,13 @@
         <v>22</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2511,13 +2832,13 @@
         <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2527,13 +2848,13 @@
         <v>22</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2543,13 +2864,13 @@
         <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2559,11 +2880,11 @@
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2573,13 +2894,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2589,10 +2910,10 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>14</v>
@@ -2605,13 +2926,13 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2621,13 +2942,13 @@
         <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2637,13 +2958,13 @@
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2653,11 +2974,11 @@
         <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2667,13 +2988,13 @@
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2683,13 +3004,13 @@
         <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2699,11 +3020,11 @@
         <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2713,11 +3034,11 @@
         <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2727,13 +3048,13 @@
         <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2743,11 +3064,11 @@
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -2757,13 +3078,13 @@
         <v>24</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -2773,11 +3094,11 @@
         <v>24</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -2787,10 +3108,10 @@
         <v>25</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>14</v>
@@ -2803,13 +3124,13 @@
         <v>25</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2">
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -2819,13 +3140,13 @@
         <v>25</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2835,13 +3156,13 @@
         <v>25</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2851,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -2867,13 +3188,13 @@
         <v>25</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -2883,13 +3204,13 @@
         <v>26</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2899,13 +3220,13 @@
         <v>26</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2915,11 +3236,11 @@
         <v>26</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2929,13 +3250,13 @@
         <v>26</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2945,13 +3266,13 @@
         <v>26</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2961,13 +3282,13 @@
         <v>26</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2977,13 +3298,13 @@
         <v>26</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2993,11 +3314,11 @@
         <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -3007,11 +3328,11 @@
         <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -3021,13 +3342,13 @@
         <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -3037,13 +3358,13 @@
         <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -3053,13 +3374,13 @@
         <v>27</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -3069,11 +3390,11 @@
         <v>27</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3083,13 +3404,13 @@
         <v>27</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -3099,13 +3420,13 @@
         <v>31</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -3115,11 +3436,11 @@
         <v>31</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -3129,13 +3450,13 @@
         <v>31</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -3145,11 +3466,11 @@
         <v>31</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -3159,13 +3480,13 @@
         <v>31</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -3175,11 +3496,11 @@
         <v>31</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3189,13 +3510,13 @@
         <v>31</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2">
         <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3205,13 +3526,13 @@
         <v>35</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3219,10 +3540,10 @@
         <v>35</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,10 +3551,10 @@
         <v>35</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" t="s">
         <v>92</v>
-      </c>
-      <c r="D99" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3241,13 +3562,13 @@
         <v>35</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3258,10 +3579,10 @@
         <v>6</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -3283,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3297,41 +3618,53 @@
       <c r="B104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3340,22 +3673,22 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3364,22 +3697,22 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -3388,10 +3721,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3400,10 +3733,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -3412,10 +3745,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3424,10 +3757,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3436,10 +3769,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3448,10 +3781,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3460,10 +3793,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3472,17 +3805,82 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C119" s="2">
+        <v>4</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>32</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>32</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>32</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>34</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D123"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/meals.xlsx
+++ b/meals.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15735" windowHeight="8685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meals" sheetId="1" r:id="rId1"/>
-    <sheet name="ingredients" sheetId="3" r:id="rId2"/>
+    <sheet name="meal_history" sheetId="4" r:id="rId2"/>
+    <sheet name="ingredients" sheetId="3" r:id="rId3"/>
+    <sheet name="staples" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ingredients!$A$1:$D$123</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">meals!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ingredients!$A$1:$D$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">meals!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="254">
   <si>
     <t>MealID</t>
   </si>
@@ -141,460 +143,691 @@
     <t>Turkey wraps</t>
   </si>
   <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>spinach/ avocado</t>
+  </si>
+  <si>
+    <t>Fajitas</t>
+  </si>
+  <si>
+    <t>peppers</t>
+  </si>
+  <si>
+    <t>Peanut chicken</t>
+  </si>
+  <si>
+    <t>Fried rice</t>
+  </si>
+  <si>
+    <t>carrots &amp; peas</t>
+  </si>
+  <si>
+    <t>Thai green curry</t>
+  </si>
+  <si>
+    <t>40 clove garlic chicken</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>chicken/sausage</t>
+  </si>
+  <si>
+    <t>Creole fish &amp; corn stew</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>slow cooker</t>
+  </si>
+  <si>
+    <t>Mid East lentils &amp; peppers</t>
+  </si>
+  <si>
+    <t>quinoa</t>
+  </si>
+  <si>
+    <t>Risotto</t>
+  </si>
+  <si>
+    <t>Turkey Picatta</t>
+  </si>
+  <si>
+    <t>Fish Tacos</t>
+  </si>
+  <si>
+    <t>Quiche</t>
+  </si>
+  <si>
+    <t>Red Beans &amp; Rice</t>
+  </si>
+  <si>
+    <t>Cajun Mixed Bean Soup</t>
+  </si>
+  <si>
+    <t>Puerto Rican Rice</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>Greek pork chops</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>Chicken w/ olives &amp; peppers</t>
+  </si>
+  <si>
+    <t>Jambalaya</t>
+  </si>
+  <si>
+    <t>Chorizo rice w/ lentils</t>
+  </si>
+  <si>
+    <t>Carnitas</t>
+  </si>
+  <si>
+    <t>Pad see ew</t>
+  </si>
+  <si>
+    <t>Quinoa primavera</t>
+  </si>
+  <si>
+    <t>Spaghetti Bolognese</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>Salmon egg fried rice</t>
+  </si>
+  <si>
+    <t>Jacket potatoes</t>
+  </si>
+  <si>
+    <t>Tofu stir-fry</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>chicken, whole</t>
+  </si>
+  <si>
+    <t>10 sprigs</t>
+  </si>
+  <si>
+    <t>thyme, fresh</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t>heavy cream</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>puff pastry</t>
+  </si>
+  <si>
+    <t>quiche fillings</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>3 stalks</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>350 grams</t>
+  </si>
+  <si>
+    <t>kidney beans</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>green pepper</t>
+  </si>
+  <si>
+    <t>2 Tbsp</t>
+  </si>
+  <si>
+    <t>tomato paste</t>
+  </si>
+  <si>
+    <t>3 cans</t>
+  </si>
+  <si>
+    <t>710 ml</t>
+  </si>
+  <si>
+    <t>chicken stock</t>
+  </si>
+  <si>
+    <t>Honey baked chicken</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>1 Tbsp</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>225 grams</t>
+  </si>
+  <si>
+    <t>2 stalks</t>
+  </si>
+  <si>
+    <t>1 litre</t>
+  </si>
+  <si>
+    <t>500 grams</t>
+  </si>
+  <si>
+    <t>turkey, mince</t>
+  </si>
+  <si>
+    <t>1 package</t>
+  </si>
+  <si>
+    <t>spinach</t>
+  </si>
+  <si>
+    <t>mozzarella, shredded</t>
+  </si>
+  <si>
+    <t>Parmesan cheese</t>
+  </si>
+  <si>
+    <t>tortillas, large</t>
+  </si>
+  <si>
+    <t>300 grams</t>
+  </si>
+  <si>
+    <t>garlic cloves</t>
+  </si>
+  <si>
+    <t>rice, medium grain</t>
+  </si>
+  <si>
+    <t>2 cans</t>
+  </si>
+  <si>
+    <t>115 grams</t>
+  </si>
+  <si>
+    <t>tomato sauce</t>
+  </si>
+  <si>
+    <t>olives, green</t>
+  </si>
+  <si>
+    <t>lentils, black or green</t>
+  </si>
+  <si>
+    <t>chorizo</t>
+  </si>
+  <si>
+    <t>veg (chorizo rice w/lentils)</t>
+  </si>
+  <si>
+    <t>veg (40 clove garlic chicken)</t>
+  </si>
+  <si>
+    <t>1.5 kg</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>tortillas, corn</t>
+  </si>
+  <si>
+    <t>avocados</t>
+  </si>
+  <si>
+    <t>chicken/pork</t>
+  </si>
+  <si>
+    <t>frozen peas</t>
+  </si>
+  <si>
+    <t>carrots (fresh or frozen)</t>
+  </si>
+  <si>
+    <t>soy sauce</t>
+  </si>
+  <si>
+    <t>170 grams</t>
+  </si>
+  <si>
+    <t>rice noodles, wide</t>
+  </si>
+  <si>
+    <t>oyster sauce</t>
+  </si>
+  <si>
+    <t>1 tsp</t>
+  </si>
+  <si>
+    <t>fish sauce</t>
+  </si>
+  <si>
+    <t>1 bunch</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>340 grams</t>
+  </si>
+  <si>
+    <t>chicken breast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carrot </t>
+  </si>
+  <si>
+    <t>2 fillets</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>basa fillets</t>
+  </si>
+  <si>
+    <t>cheddar cheese</t>
+  </si>
+  <si>
+    <t>Garlic butter salmon pasta</t>
+  </si>
+  <si>
+    <t>118 ml</t>
+  </si>
+  <si>
+    <t>lemon juice</t>
+  </si>
+  <si>
+    <t>parsley</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>black beans</t>
+  </si>
+  <si>
+    <t>tomatoes</t>
+  </si>
+  <si>
+    <t>vegetable stock</t>
+  </si>
+  <si>
+    <t>85 grams</t>
+  </si>
+  <si>
+    <t>cream cheese</t>
+  </si>
+  <si>
+    <t>veg (quinoa primavera)</t>
+  </si>
+  <si>
+    <t>Romano cheese</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>falafel mix</t>
+  </si>
+  <si>
+    <t>Coconut beef madras</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>400 grams</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>stir-fry vegetables</t>
+  </si>
+  <si>
+    <t>baking potatoes</t>
+  </si>
+  <si>
+    <t>1 tin</t>
+  </si>
+  <si>
+    <t>baked beans</t>
+  </si>
+  <si>
+    <t>2 tins</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>MealGroup</t>
+  </si>
+  <si>
+    <t>MidEast</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Cajun</t>
+  </si>
+  <si>
+    <t>Mexican</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>rice and beans</t>
+  </si>
+  <si>
+    <t>Chili con carne</t>
+  </si>
+  <si>
+    <t>Veggie chili</t>
+  </si>
+  <si>
+    <t>Pasta (tortellini)</t>
+  </si>
+  <si>
+    <t>rice/pasta</t>
+  </si>
+  <si>
+    <t>Salmon &amp; potatoes</t>
+  </si>
+  <si>
+    <t>Tacos</t>
+  </si>
+  <si>
+    <t>Grilled chicken breast</t>
+  </si>
+  <si>
+    <t>grill</t>
+  </si>
+  <si>
+    <t>BBQ chicken</t>
+  </si>
+  <si>
+    <t>Sausages</t>
+  </si>
+  <si>
+    <t>Grilled sausages</t>
+  </si>
+  <si>
+    <t>Tandoori chicken</t>
+  </si>
+  <si>
+    <t>WeekNo</t>
+  </si>
+  <si>
+    <t>SpagBol, Spaghetti &amp; meatballs</t>
+  </si>
+  <si>
+    <t>Tandoori grilled chicken</t>
+  </si>
+  <si>
+    <t>YearNo</t>
+  </si>
+  <si>
+    <t>Chicken breast</t>
+  </si>
+  <si>
+    <t>chicken thighs</t>
+  </si>
+  <si>
+    <t>yoghurt (plain)</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>basmati rice</t>
+  </si>
+  <si>
+    <t>popadoms</t>
+  </si>
+  <si>
+    <t>mango chutney</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>burgers</t>
+  </si>
+  <si>
+    <t>Hula Hoops Variety Crisps 12x24g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Conference Pears, Ripe &amp; Ready x4</t>
+  </si>
+  <si>
+    <t>Maryland Minis Cookies Double Choc x6 118.8g</t>
+  </si>
+  <si>
+    <t>Pizza Express Honey &amp; Mustard Salad Dressing 235ml</t>
+  </si>
+  <si>
+    <t>Sainsbury's Houmous 200g</t>
+  </si>
+  <si>
+    <t>Müller Corner Skyr Nuts &amp; Chocolate Balls Granola Yogurt 170g</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Sugar 24x330ml</t>
+  </si>
+  <si>
+    <t>Sainsbury's Thick Sliced Wholemeal Bread 800g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Greek Style Honey Yogurt 450g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Strawberries, Taste the Diff erence 250g</t>
+  </si>
+  <si>
+    <t>Regina Absorb Kitchen Towel Rolls x4</t>
+  </si>
+  <si>
+    <t>Napolina Chopped Tomatoes 4x400g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Vittoria Cherry Vine Tomatoes, Taste the Diff erence250g</t>
+  </si>
+  <si>
+    <t>Sainsbury's British Roast Cooked Chicken Breast Slices x7 135g</t>
+  </si>
+  <si>
+    <t>Robinsons Crushed Lime &amp; Mint Fruit Cordial 500ml</t>
+  </si>
+  <si>
+    <t>Sainsbury's British Whole Milk 568ml (1 pint)</t>
+  </si>
+  <si>
+    <t>Cif Power &amp; Shine Kitchen Cleaner Spray 700ml</t>
+  </si>
+  <si>
+    <t>Cadbury Hot Chocolate Instant Jar 300g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Whole Cucumber</t>
+  </si>
+  <si>
+    <t>Sainsbury's Carrots 1kg</t>
+  </si>
+  <si>
+    <t>Duck Toilet Cleaner Fresh Discs Lime Duo Refi lls x2 36ml</t>
+  </si>
+  <si>
+    <t>Sainsbury's Raspberries, Taste the Diff erence 150g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Fairtrade Bananas x5</t>
+  </si>
+  <si>
+    <t>Yeo Valley Organic Little Yeos, Strawberry &amp; Raspberry FromageFrais 6x45g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Simply Salty Butterfl y Popcorn 90g</t>
+  </si>
+  <si>
+    <t>Lurpak Spreadable Blend of Butter and Rapeseed Oil 750g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Wild Rocket 60g</t>
+  </si>
+  <si>
+    <t>Whitworths Jumbo Flame Raisins 300g</t>
+  </si>
+  <si>
+    <t>Lindt Excellence Dark 70% Cocoa Chocolate Bar 100g</t>
+  </si>
+  <si>
+    <t>Old El Paso Gluten Free White Corn Tortilla Wraps x10 208g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Lemons</t>
+  </si>
+  <si>
+    <t>Sainsbury's SO Organic Super Firm Tofu 300g</t>
+  </si>
+  <si>
+    <t>Sainsbury’s Medium Ripe &amp; Ready Avocados x2</t>
+  </si>
+  <si>
+    <t>Sainsbury's British or Irish 5% Fat Beef Mince 500g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Free from Fusilli Pasta 500g</t>
+  </si>
+  <si>
+    <t>Fundador Brandy de Jerez Solera 1L</t>
+  </si>
+  <si>
+    <t>Sainsbury's Stir Fry Vegetables 500g</t>
+  </si>
+  <si>
+    <t>Sainsbury's Tortilla Chips Salted 200g</t>
+  </si>
+  <si>
+    <t>Pork chops</t>
+  </si>
+  <si>
+    <t>pigeon (gungo) peas</t>
+  </si>
+  <si>
+    <t>Tacos (pork)</t>
+  </si>
+  <si>
+    <t>Cuban mojo chicken</t>
+  </si>
+  <si>
+    <t>Roast chicken</t>
+  </si>
+  <si>
     <t>tortillas</t>
   </si>
   <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>spinach/ avocado</t>
-  </si>
-  <si>
-    <t>Fajitas</t>
-  </si>
-  <si>
-    <t>peppers</t>
-  </si>
-  <si>
-    <t>Peanut chicken</t>
-  </si>
-  <si>
-    <t>Fried rice</t>
-  </si>
-  <si>
-    <t>carrots &amp; peas</t>
-  </si>
-  <si>
-    <t>Thai green curry</t>
-  </si>
-  <si>
-    <t>40 clove garlic chicken</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>crust</t>
-  </si>
-  <si>
-    <t>chicken/sausage</t>
-  </si>
-  <si>
-    <t>Creole fish &amp; corn stew</t>
-  </si>
-  <si>
-    <t>corn</t>
-  </si>
-  <si>
-    <t>slow cooker</t>
-  </si>
-  <si>
-    <t>Mid East lentils &amp; peppers</t>
-  </si>
-  <si>
-    <t>quinoa</t>
-  </si>
-  <si>
-    <t>Risotto</t>
-  </si>
-  <si>
-    <t>Turkey Picatta</t>
-  </si>
-  <si>
-    <t>Fish Tacos</t>
-  </si>
-  <si>
-    <t>Quiche</t>
-  </si>
-  <si>
-    <t>Red Beans &amp; Rice</t>
-  </si>
-  <si>
-    <t>Cajun Mixed Bean Soup</t>
-  </si>
-  <si>
-    <t>Puerto Rican Rice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>Greek pork chops</t>
-  </si>
-  <si>
-    <t>veg</t>
-  </si>
-  <si>
-    <t>bacon</t>
-  </si>
-  <si>
-    <t>Chicken w/ olives &amp; peppers</t>
-  </si>
-  <si>
-    <t>Jambalaya</t>
-  </si>
-  <si>
-    <t>Chorizo rice w/ lentils</t>
-  </si>
-  <si>
-    <t>Carnitas</t>
-  </si>
-  <si>
-    <t>Pad see ew</t>
-  </si>
-  <si>
-    <t>Quinoa primavera</t>
-  </si>
-  <si>
-    <t>Spaghetti Bolognese</t>
-  </si>
-  <si>
-    <t>various</t>
-  </si>
-  <si>
-    <t>Salmon egg fried rice</t>
-  </si>
-  <si>
-    <t>Jacket potatoes</t>
-  </si>
-  <si>
-    <t>Tofu stir-fry</t>
-  </si>
-  <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>chicken, whole</t>
-  </si>
-  <si>
-    <t>10 sprigs</t>
-  </si>
-  <si>
-    <t>thyme, fresh</t>
-  </si>
-  <si>
-    <t>1 cup</t>
-  </si>
-  <si>
-    <t>heavy cream</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>puff pastry</t>
-  </si>
-  <si>
-    <t>quiche fillings</t>
-  </si>
-  <si>
-    <t>onion</t>
-  </si>
-  <si>
-    <t>3 stalks</t>
-  </si>
-  <si>
-    <t>celery</t>
-  </si>
-  <si>
-    <t>350 grams</t>
-  </si>
-  <si>
-    <t>kidney beans</t>
-  </si>
-  <si>
-    <t>sausage</t>
-  </si>
-  <si>
-    <t>green pepper</t>
-  </si>
-  <si>
-    <t>2 Tbsp</t>
-  </si>
-  <si>
-    <t>tomato paste</t>
-  </si>
-  <si>
-    <t>3 cans</t>
-  </si>
-  <si>
-    <t>710 ml</t>
-  </si>
-  <si>
-    <t>chicken stock</t>
-  </si>
-  <si>
-    <t>Honey baked chicken</t>
-  </si>
-  <si>
-    <t>honey</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>1 Tbsp</t>
-  </si>
-  <si>
-    <t>mustard</t>
-  </si>
-  <si>
-    <t>225 grams</t>
-  </si>
-  <si>
-    <t>2 stalks</t>
-  </si>
-  <si>
-    <t>1 litre</t>
-  </si>
-  <si>
-    <t>500 grams</t>
-  </si>
-  <si>
-    <t>turkey, mince</t>
-  </si>
-  <si>
-    <t>1 package</t>
-  </si>
-  <si>
-    <t>spinach</t>
-  </si>
-  <si>
-    <t>mozzarella, shredded</t>
-  </si>
-  <si>
-    <t>Parmesan cheese</t>
-  </si>
-  <si>
-    <t>tortillas, large</t>
-  </si>
-  <si>
-    <t>300 grams</t>
-  </si>
-  <si>
-    <t>garlic cloves</t>
-  </si>
-  <si>
-    <t>rice, medium grain</t>
-  </si>
-  <si>
-    <t>2 cans</t>
-  </si>
-  <si>
-    <t>pigeon peas</t>
-  </si>
-  <si>
-    <t>115 grams</t>
-  </si>
-  <si>
-    <t>tomato sauce</t>
-  </si>
-  <si>
-    <t>olives, green</t>
-  </si>
-  <si>
-    <t>lentils, black or green</t>
-  </si>
-  <si>
-    <t>chorizo</t>
-  </si>
-  <si>
-    <t>veg (chorizo rice w/lentils)</t>
-  </si>
-  <si>
-    <t>veg (40 clove garlic chicken)</t>
-  </si>
-  <si>
-    <t>1.5 kg</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>tortillas, corn</t>
-  </si>
-  <si>
-    <t>avocados</t>
-  </si>
-  <si>
-    <t>chicken/pork</t>
-  </si>
-  <si>
-    <t>frozen peas</t>
-  </si>
-  <si>
-    <t>carrots (fresh or frozen)</t>
-  </si>
-  <si>
-    <t>soy sauce</t>
-  </si>
-  <si>
-    <t>170 grams</t>
-  </si>
-  <si>
-    <t>rice noodles, wide</t>
-  </si>
-  <si>
-    <t>oyster sauce</t>
-  </si>
-  <si>
-    <t>1 tsp</t>
-  </si>
-  <si>
-    <t>fish sauce</t>
-  </si>
-  <si>
-    <t>1 bunch</t>
-  </si>
-  <si>
-    <t>broccoli</t>
-  </si>
-  <si>
-    <t>340 grams</t>
-  </si>
-  <si>
-    <t>chicken breast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carrot </t>
-  </si>
-  <si>
-    <t>2 fillets</t>
-  </si>
-  <si>
-    <t>salmon</t>
-  </si>
-  <si>
-    <t>basa fillets</t>
-  </si>
-  <si>
-    <t>cheddar cheese</t>
-  </si>
-  <si>
-    <t>Garlic butter salmon pasta</t>
-  </si>
-  <si>
-    <t>118 ml</t>
-  </si>
-  <si>
-    <t>lemon juice</t>
-  </si>
-  <si>
-    <t>parsley</t>
-  </si>
-  <si>
-    <t>pasta</t>
-  </si>
-  <si>
-    <t>black beans</t>
-  </si>
-  <si>
-    <t>tomatoes</t>
-  </si>
-  <si>
-    <t>vegetable stock</t>
-  </si>
-  <si>
-    <t>85 grams</t>
-  </si>
-  <si>
-    <t>cream cheese</t>
-  </si>
-  <si>
-    <t>veg (quinoa primavera)</t>
-  </si>
-  <si>
-    <t>Romano cheese</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>falafel mix</t>
-  </si>
-  <si>
-    <t>Coconut beef madras</t>
-  </si>
-  <si>
-    <t>beef</t>
-  </si>
-  <si>
-    <t>400 grams</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>stir-fry vegetables</t>
-  </si>
-  <si>
-    <t>baking potatoes</t>
-  </si>
-  <si>
-    <t>1 tin</t>
-  </si>
-  <si>
-    <t>baked beans</t>
-  </si>
-  <si>
-    <t>2 tins</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>MealGroup</t>
-  </si>
-  <si>
-    <t>MidEast</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Cajun</t>
-  </si>
-  <si>
-    <t>Mexican</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>rice and beans</t>
-  </si>
-  <si>
-    <t>Chili con carne</t>
-  </si>
-  <si>
-    <t>Veggie chili</t>
-  </si>
-  <si>
-    <t>SpagBol</t>
-  </si>
-  <si>
-    <t>Pasta (tortellini)</t>
-  </si>
-  <si>
-    <t>rice/pasta</t>
-  </si>
-  <si>
-    <t>Salmon &amp; potatoes</t>
-  </si>
-  <si>
-    <t>tacos</t>
-  </si>
-  <si>
-    <t>Tacos</t>
+    <t>Lentil and sausage hotpot</t>
+  </si>
+  <si>
+    <t>Bean and cheese enchiladas</t>
+  </si>
+  <si>
+    <t>Thai coconut chicken</t>
+  </si>
+  <si>
+    <t>Thai coconut tofu</t>
+  </si>
+  <si>
+    <t>Chickpea curry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spinach </t>
+  </si>
+  <si>
+    <t>Hamburgers</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>Shredded pork tacos</t>
+  </si>
+  <si>
+    <t>Sausage casserole</t>
+  </si>
+  <si>
+    <t>Smoked mackerel</t>
+  </si>
+  <si>
+    <t>Tapas / snacky dinner</t>
+  </si>
+  <si>
+    <t>Chicken souvlaki</t>
+  </si>
+  <si>
+    <t>Chicken parmesan</t>
+  </si>
+  <si>
+    <t>Beef and broccoli</t>
+  </si>
+  <si>
+    <t>Hello Fresh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -658,6 +891,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,15 +1196,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -998,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1027,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1061,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1070,7 +1304,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -1087,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1102,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1113,10 +1347,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1128,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,7 +1373,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -1154,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1162,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -1180,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,7 +1428,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1214,13 +1448,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -1234,16 +1468,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -1252,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1278,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1286,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -1295,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1304,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1312,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -1321,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
@@ -1330,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -1356,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1376,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1387,10 +1621,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -1399,7 +1633,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1410,25 +1644,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -1445,16 +1679,16 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1462,25 +1696,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,25 +1722,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,7 +1748,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
@@ -1523,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1537,16 +1771,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -1555,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,7 +1797,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -1572,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
@@ -1581,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1605,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,10 +1847,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>14</v>
@@ -1625,13 +1859,13 @@
         <v>26</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1639,10 +1873,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -1657,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1665,13 +1899,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>18</v>
@@ -1688,13 +1922,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -1706,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1714,13 +1948,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1735,25 +1969,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1995,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -1770,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>12</v>
@@ -1779,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,7 +2021,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -1796,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
@@ -1810,13 +2044,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>18</v>
@@ -1825,10 +2059,10 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,7 +2070,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
@@ -1859,25 +2093,25 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,13 +2119,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>26</v>
@@ -1903,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1911,13 +2145,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>26</v>
@@ -1929,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1937,16 +2171,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>8</v>
@@ -1955,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1963,7 +2197,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
@@ -1972,7 +2206,7 @@
         <v>22</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>12</v>
@@ -1986,10 +2220,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>17</v>
@@ -2004,10 +2238,550 @@
         <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H63"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2016,10 +2790,1945 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:B138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2024</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2024</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2024</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2024</v>
+      </c>
+      <c r="B48">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2">
+        <v>30</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52">
+        <v>41</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53">
+        <v>42</v>
+      </c>
+      <c r="C53" s="2">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54">
+        <v>42</v>
+      </c>
+      <c r="C54" s="2">
+        <v>52</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55">
+        <v>42</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56">
+        <v>42</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57">
+        <v>42</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58">
+        <v>42</v>
+      </c>
+      <c r="C58" s="2">
+        <v>30</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60">
+        <v>43</v>
+      </c>
+      <c r="C60" s="2">
+        <v>54</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2024</v>
+      </c>
+      <c r="B61">
+        <v>43</v>
+      </c>
+      <c r="C61" s="2">
+        <v>53</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62">
+        <v>43</v>
+      </c>
+      <c r="C62" s="2">
+        <v>41</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63">
+        <v>44</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64">
+        <v>44</v>
+      </c>
+      <c r="C64" s="2">
+        <v>32</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65">
+        <v>44</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66">
+        <v>44</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
+        <v>48</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68">
+        <v>45</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69">
+        <v>45</v>
+      </c>
+      <c r="C69" s="2">
+        <v>54</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70">
+        <v>45</v>
+      </c>
+      <c r="C70" s="2">
+        <v>34</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2024</v>
+      </c>
+      <c r="B71">
+        <v>45</v>
+      </c>
+      <c r="C71" s="2">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2024</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72" s="2">
+        <v>56</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2024</v>
+      </c>
+      <c r="B73">
+        <v>46</v>
+      </c>
+      <c r="C73" s="2">
+        <v>55</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2024</v>
+      </c>
+      <c r="B74">
+        <v>46</v>
+      </c>
+      <c r="C74" s="2">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2024</v>
+      </c>
+      <c r="B75">
+        <v>47</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2024</v>
+      </c>
+      <c r="B76">
+        <v>47</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2024</v>
+      </c>
+      <c r="B77">
+        <v>47</v>
+      </c>
+      <c r="C77" s="2">
+        <v>31</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2024</v>
+      </c>
+      <c r="B78">
+        <v>47</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2024</v>
+      </c>
+      <c r="B79">
+        <v>48</v>
+      </c>
+      <c r="C79" s="2">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2024</v>
+      </c>
+      <c r="B80">
+        <v>48</v>
+      </c>
+      <c r="C80" s="2">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2024</v>
+      </c>
+      <c r="B81">
+        <v>48</v>
+      </c>
+      <c r="C81" s="2">
+        <v>54</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2024</v>
+      </c>
+      <c r="B82">
+        <v>48</v>
+      </c>
+      <c r="C82" s="2">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2024</v>
+      </c>
+      <c r="B83">
+        <v>48</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2024</v>
+      </c>
+      <c r="B84">
+        <v>49</v>
+      </c>
+      <c r="C84" s="2">
+        <v>48</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2024</v>
+      </c>
+      <c r="B85">
+        <v>49</v>
+      </c>
+      <c r="C85" s="2">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2024</v>
+      </c>
+      <c r="B86">
+        <v>49</v>
+      </c>
+      <c r="C86" s="2">
+        <v>39</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2024</v>
+      </c>
+      <c r="B87">
+        <v>49</v>
+      </c>
+      <c r="C87" s="2">
+        <v>53</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2024</v>
+      </c>
+      <c r="B88">
+        <v>49</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2024</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+      <c r="C89" s="2">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2024</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+      <c r="C90" s="2">
+        <v>11</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2024</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2024</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2024</v>
+      </c>
+      <c r="B93">
+        <v>51</v>
+      </c>
+      <c r="C93" s="2">
+        <v>58</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2024</v>
+      </c>
+      <c r="B94">
+        <v>51</v>
+      </c>
+      <c r="C94" s="2">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2024</v>
+      </c>
+      <c r="B95">
+        <v>51</v>
+      </c>
+      <c r="C95" s="2">
+        <v>32</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2024</v>
+      </c>
+      <c r="B96">
+        <v>51</v>
+      </c>
+      <c r="C96" s="2">
+        <v>34</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2024</v>
+      </c>
+      <c r="B97">
+        <v>52</v>
+      </c>
+      <c r="C97" s="2">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2024</v>
+      </c>
+      <c r="B98">
+        <v>52</v>
+      </c>
+      <c r="C98" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2025</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>48</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2025</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2025</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2025</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
+        <v>5</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2025</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" s="2">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2025</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" s="2">
+        <v>48</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2025</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2025</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2">
+        <v>34</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2025</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" s="2">
+        <v>54</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2025</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" s="2">
+        <v>48</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2025</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2025</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2">
+        <v>30</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2025</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" s="2">
+        <v>59</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2025</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2025</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" s="2">
+        <v>30</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2025</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2">
+        <v>38</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2025</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2">
+        <v>57</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2025</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2">
+        <v>48</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2025</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2025</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2">
+        <v>7</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2025</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2">
+        <v>32</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2025</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2">
+        <v>23</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2025</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2025</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122" s="2">
+        <v>6</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2025</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123" s="2">
+        <v>22</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2025</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124" s="2">
+        <v>39</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2025</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125" s="2">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2025</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126" s="2">
+        <v>48</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2025</v>
+      </c>
+      <c r="B127">
+        <v>11</v>
+      </c>
+      <c r="C127" s="2">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2025</v>
+      </c>
+      <c r="B128">
+        <v>11</v>
+      </c>
+      <c r="C128" s="2">
+        <v>32</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2025</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129" s="2">
+        <v>41</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2025</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130" s="2">
+        <v>40</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2025</v>
+      </c>
+      <c r="B131">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2">
+        <v>7</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2025</v>
+      </c>
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2025</v>
+      </c>
+      <c r="B133">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2025</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134" s="2">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2025</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135" s="2">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2025</v>
+      </c>
+      <c r="B136">
+        <v>13</v>
+      </c>
+      <c r="C136" s="2">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2025</v>
+      </c>
+      <c r="B137">
+        <v>13</v>
+      </c>
+      <c r="C137" s="2">
+        <v>59</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2025</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138" s="2">
+        <v>52</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,1632 +4748,1600 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="2">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
       <c r="D67" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
+        <v>22</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="2">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>147</v>
+        <v>58</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
       <c r="D88" s="2" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="2">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="2">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" t="s">
-        <v>91</v>
+        <v>59</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3673,215 +6350,943 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C116" s="2">
+        <v>4</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="2">
-        <v>4</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>88</v>
+      </c>
+      <c r="D120" t="s">
+        <v>90</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>88</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>68</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+      <c r="D122" t="s">
+        <v>89</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" t="s">
+        <v>92</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>46</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>46</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>46</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>46</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>46</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>46</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>46</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>46</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>41</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D123"/>
+  <sortState ref="A2:D131">
+    <sortCondition ref="A2:A131"/>
+    <sortCondition ref="D2:D131"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>